--- a/String Functions/String Utilities.xlsx
+++ b/String Functions/String Utilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/String Functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D316320-CC69-934A-938E-C66D23BD2101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49364179-E9BD-8D49-94C2-0CB3B5F7AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="1800" windowWidth="33260" windowHeight="17440" xr2:uid="{D80B3487-635B-2E4E-BDFF-D2F369F38B28}"/>
   </bookViews>

--- a/String Functions/String Utilities.xlsx
+++ b/String Functions/String Utilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/String Functions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\ObsidianVaults\Lambda-Update-Project\Lambda-Development\String Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49364179-E9BD-8D49-94C2-0CB3B5F7AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5AE2C8-3825-47D9-BD3C-5C27C97F3F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="1800" windowWidth="33260" windowHeight="17440" xr2:uid="{D80B3487-635B-2E4E-BDFF-D2F369F38B28}"/>
+    <workbookView xWindow="615" yWindow="1170" windowWidth="28185" windowHeight="14190" xr2:uid="{D80B3487-635B-2E4E-BDFF-D2F369F38B28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sums" sheetId="5" r:id="rId1"/>
@@ -475,7 +475,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -513,15 +513,15 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="2" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="2"/>
+    <col min="2" max="2" width="30.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
     <col min="4" max="4" width="2" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="2"/>
+    <col min="7" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
